--- a/Output_testing/R1_201907/Country/HKD/MN/KAZAKHSTAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/KAZAKHSTAN_201907_HKD_MN.xlsx
@@ -641,7 +641,7 @@
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>182</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/KAZAKHSTAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/KAZAKHSTAN_201907_HKD_MN.xlsx
@@ -544,17 +544,23 @@
       <c r="C7" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="D7" s="8" t="n">
-        <v>0.298925</v>
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="E7" s="8" t="n">
         <v>1.527484</v>
       </c>
-      <c r="F7" s="8" t="n">
-        <v>0.495321</v>
+      <c r="F7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.277081</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>410.9923893953333</v>
@@ -652,11 +658,15 @@
       <c r="E10" s="8" t="n">
         <v>4.633408</v>
       </c>
-      <c r="F10" s="8" t="n">
-        <v>0.167882</v>
+      <c r="F10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G10" s="8" t="n">
-        <v>0.225065</v>
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H10" s="9" t="n">
         <v>12.63975106205823</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/KAZAKHSTAN_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/KAZAKHSTAN_201907_HKD_MN.xlsx
@@ -820,136 +820,437 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>352.665808</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>63.75499106982028</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>843.889852</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>74.43168911660804</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>1216.239023</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>75.83776594292787</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>565.29766</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>79.68098213158208</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>10.20677604166826</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>61.048307</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>11.0363244162662</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>125.815237</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>11.0969939789208</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>216.662373</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>13.50983648895249</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>52.683712</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>7.425981410390796</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-54.10180827614853</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>4.042736</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>0.7308465740961225</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>13.285083</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>1.171753831854746</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>36.751002</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>2.2915840021062</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>13.370984</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>1.884694051600479</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-51.02348977924098</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>8.434241999999999</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>1.524743854359431</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>5.152317</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>0.4544380481236248</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>8.270604000000001</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>0.5157079476133887</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>11.125229</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>1.56814583870515</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>355.5386628690196</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D22" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>7.438254</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>0.6560593281057328</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>10.599355</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>0.6609156493377882</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>8.340778</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>1.175666254803696</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>18.83876010587347</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>13.89331</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>2.511635193679577</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>21.924753</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>1.933778911296139</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>11.612224</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>0.7240724143323672</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>7.9643</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>1.122600164293196</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>50.69996018825054</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3.926583</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>0.7098484129198828</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>6.286419</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>0.5544666564668419</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>19.062737</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.188644139432115</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>7.617645</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.073737745756343</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-54.18609072286446</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="n">
+        <v>5.118444</v>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.9253132685643718</v>
+      </c>
+      <c r="E25" s="8" t="n">
+        <v>7.362868</v>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.6494102289342634</v>
+      </c>
+      <c r="G25" s="8" t="n">
+        <v>7.008902</v>
+      </c>
+      <c r="H25" s="9" t="n">
+        <v>0.437035368329009</v>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>6.923031</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>0.9758291046302736</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>87.79801238273188</v>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>5.141966</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>0.9295655801464017</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>10.506691</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>0.9266976683069105</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>5.538996</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>0.3453803687129464</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>3.01312</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>0.424711400504139</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>22.45672629674802</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>2.057296</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>0.3719183576423631</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>7.367423</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>0.6498119831953469</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>3.811468</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>0.2376615226256882</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>2.891855</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>0.4076186103125322</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>0.4494399975546459</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>96.64067300000001</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>17.47071903295037</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>84.74874800000001</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>7.474900248187553</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>68.181253</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>4.251396155630133</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>30.222856</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>4.260033287421317</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-33.2187331902555</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -981,136 +1282,585 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>79.39916486514772</v>
+      </c>
+      <c r="K31" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>JEWELLERY, GOLDSMITHS' AND SILVERSMITHS' WARES, AND OTHER ARTICLES OF PRECIOUS OR SEMI-PRECIOUS MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>27.39817680020072</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>6.210212349196456</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>18.17410793233747</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>27.60458308940369</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>11.0972029821589</v>
+      </c>
+      <c r="G33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>2.359681903250619</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>2.426727202514788</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-39.49973007018175</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>TUBES, PIPES AND HOSES OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>79.61645074608184</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>7.944343163322371</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>098</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>EDIBLE PRODUCTS AND PREPARATIONS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="n">
+        <v>5.234181470198114</v>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="n">
+        <v>4.845342717147062</v>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>TOBACCO, MANUFACTURED</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="n">
+        <v>0.986266</v>
+      </c>
+      <c r="F38" s="9" t="n">
+        <v>64.56800856833851</v>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="n">
+        <v>8.493769340135486</v>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="n">
+        <v>15.97201672816213</v>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="n">
+        <v>1.178408415407297</v>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="n">
+        <v>36.5034707702601</v>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="n">
+        <v>0.974150956736699</v>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1142,136 +1892,437 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>352.665808</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>63.78946271539182</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>843.889852</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>74.53210262780435</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>1216.239023</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>75.86119598257984</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>565.29766</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>79.7121142422337</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>10.20677604166826</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>61.048307</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>11.04229163949541</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>125.815237</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>11.11196459348527</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>216.662373</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>13.51401034614215</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>52.683712</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>7.428882811312075</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-54.10180827614853</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>PARTS AND ACCESSORIES (OTHER THAN COVERS, CARRYING CASES AND THE LIKE) SUITABLE FOR USE SOLELY WITH MACHINES FALLING WITHIN GROUPS 751 AND 752</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>4.042736</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>0.7312417350654312</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>13.285083</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>1.173334609046702</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>36.751002</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>2.292291985831295</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>13.370984</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>1.88543041932825</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-51.02348977924098</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>751</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE MACHINES</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>8.434241999999999</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>1.525568267144264</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>5.152317</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>0.4550511165703424</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>8.270604000000001</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>0.5158672753244727</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>11.125229</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>1.568758528062917</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>355.5386628690196</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>884</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>OPTICAL GOODS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D48" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>7.438254</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>0.6569443976435875</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>10.599355</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>0.6611198388953003</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>8.340778</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>1.17612559868921</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>18.83876010587347</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>776</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>THERMIONIC, COLD CATHODE, DIODES, TRANSISTORS, PHOTOSENSITIVE SEMI-CONDUCTOR DEVICES, LIGHT EMITTING DIODES ETC, AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>13.89331</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>2.512993208114977</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>21.924753</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>1.936387713174279</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>11.612224</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>0.7242961161406652</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>7.9643</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>1.12303877475704</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>50.69996018825054</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>MEASURING, CHECKING, ANALYSING AND CONTROLLING INSTRUMENTS AND APPARATUS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="n">
+        <v>3.926583</v>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.7102322204067806</v>
+      </c>
+      <c r="E50" s="8" t="n">
+        <v>6.286419</v>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.5552146704441935</v>
+      </c>
+      <c r="G50" s="8" t="n">
+        <v>19.062737</v>
+      </c>
+      <c r="H50" s="9" t="n">
+        <v>1.189011370441266</v>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>7.617645</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.074157265212774</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-54.18609072286446</v>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ELECTRO-DIAGNOSTIC APPARATUS FOR MEDICAL, SURGICAL, DENTAL OR VETERINARY SCIENCES AND RADIOLOGICAL APPARATUS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>5.118444</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>0.925813575607026</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>7.362868</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>0.6502863283761546</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>7.008902</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>0.4371703901862848</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>6.923031</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>0.9762103702579015</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>87.79801238273188</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>5.129034</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>0.9277290729272426</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>10.506691</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>0.9279478477371575</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>5.538996</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>0.3454870738041809</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>3.01312</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>0.4248773392508986</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>22.45672629674802</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>851</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>FOOTWEAR</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>2.057296</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>0.372119449942606</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>7.367423</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>0.650688624631602</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>3.787468</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>0.2362379818376784</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>2.891855</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>0.4077778707450774</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>1.293873444963012</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>96.35468</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>17.42843544195674</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>83.22126400000001</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>7.350077471086356</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>67.70993199999999</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>4.223311638816867</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>29.945775</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>4.222626780150169</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-33.17415529308473</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1303,136 +2354,547 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>42.657409</v>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>97.31331857454293</v>
+      </c>
+      <c r="E57" s="8" t="n">
+        <v>11.192276</v>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>79.04778861989934</v>
+      </c>
+      <c r="G57" s="8" t="n">
+        <v>11.338916</v>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>79.88438623833834</v>
+      </c>
+      <c r="I57" s="8" t="n">
+        <v>2.399771</v>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>43.39739641409263</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-42.48342405841174</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>AUTOMATIC DATA PROCESSING MACHINES &amp; UNITS THEREOF; MAGNETIC OR OPTICAL READERS, MACHINES FOR TRANSCRIBING DATA ONTO DATA MEDIA IN CODED FORM AND FOR PROCESSING SUCH DATA, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I58" s="8" t="n">
+        <v>2.258438</v>
+      </c>
+      <c r="J58" s="9" t="n">
+        <v>40.84153411415111</v>
+      </c>
+      <c r="K58" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>714</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>ENGINES AND MOTORS, NON-ELECTRIC (OTHER THAN THOSE OF GROUPS 712, 713 AND 718); PARTS, N.E.S. OF THESE ENGINES AND MOTORS</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="n">
+        <v>0.6006</v>
+      </c>
+      <c r="D59" s="9" t="n">
+        <v>1.370134298027114</v>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I59" s="8" t="n">
+        <v>0.685843</v>
+      </c>
+      <c r="J59" s="9" t="n">
+        <v>12.40276699269661</v>
+      </c>
+      <c r="K59" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="n">
+        <v>0.3167916573923297</v>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>1.041375256349852</v>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="n">
+        <v>0.9017724052388314</v>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="n">
+        <v>1.310473261216856</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-38.18107368007985</v>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>728</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>OTHER MACHINERY AND EQUIPMENT SPECIALIZED FOR PARTICULAR INDUSTRIES, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="n">
+        <v>0.804013484857746</v>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>743</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>PUMPS (OTHER THAN PUMPS FOR LIQUIDS), AIR COMPRESSORS AND FANS; VENTILATING HOODS INCORPORATING A FAN; CENTRIFUGES; FILTERING APPARATUS; AND PARTS THEREOF</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="n">
+        <v>0.5820327037819738</v>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>894</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>BABY CARRIAGES, TOYS, GAMES AND SPORTING GOODS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="n">
+        <v>0.5783254891082033</v>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>WATCHES AND CLOCKS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="n">
+        <v>0.2849245145199674</v>
+      </c>
+      <c r="E64" s="8" t="n">
+        <v>0.540509</v>
+      </c>
+      <c r="F64" s="9" t="n">
+        <v>3.817457787777318</v>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="n">
+        <v>0.083457540094883</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>294.1076003415884</v>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>CRUDE ANIMAL MATERIALS, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="n">
+        <v>0.576549</v>
+      </c>
+      <c r="F65" s="9" t="n">
+        <v>4.071997820730506</v>
+      </c>
+      <c r="G65" s="8" t="n">
+        <v>0.930712</v>
+      </c>
+      <c r="H65" s="9" t="n">
+        <v>6.557007467438364</v>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>896</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>WORKS OF ART, COLLECTORS' PIECES AND ANTIQUES</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="n">
+        <v>0.07300082839971303</v>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="n">
+        <v>0.07062709016459148</v>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="n">
+        <v>2.961359173259872</v>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>0.6407624900025936</v>
+      </c>
+      <c r="E67" s="8" t="n">
+        <v>1.692092</v>
+      </c>
+      <c r="F67" s="9" t="n">
+        <v>11.95075342507839</v>
+      </c>
+      <c r="G67" s="8" t="n">
+        <v>1.371147</v>
+      </c>
+      <c r="H67" s="9" t="n">
+        <v>9.659938969257635</v>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
